--- a/sTools/excelTable/commonconfig.xlsx
+++ b/sTools/excelTable/commonconfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>key(S)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>outOfBattleTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseFreeNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseBuyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missionBagNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagBuyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagFreeNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -424,6 +448,54 @@
       </c>
       <c r="B4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
